--- a/documenti/nomi tutor scuola.xlsx
+++ b/documenti/nomi tutor scuola.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Valerio</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Sacchi</t>
+  </si>
+  <si>
+    <t>+sestini</t>
   </si>
 </sst>
 </file>
@@ -98,6 +101,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -286,13 +290,18 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>